--- a/malfiler/Studiebarometeret_2025_alle_vars.xlsx
+++ b/malfiler/Studiebarometeret_2025_alle_vars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDB875C6-21D5-45EE-AE02-381F95D2D65C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="14_{913F0B09-7AF5-43CE-AF2B-7015AB526CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0845904-82AB-4931-BBCC-5F966A1E8EE7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="187">
   <si>
     <t>Variabel</t>
   </si>
@@ -141,9 +141,6 @@
     <t>De faglig ansattes evne til å gi konstruktive tilbakemeldinger på arbeidet ditt</t>
   </si>
   <si>
-    <t>Medstudenters evne til å gi konstruktive tilbakemeldinger på arbeidet ditt</t>
-  </si>
-  <si>
     <t>Faglig veiledning og diskusjoner med faglig ansatte</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>ORGANISERING AV PROGRAMMET</t>
   </si>
   <si>
-    <t>Tilgjengeligheten på informasjon om studieprogrammet</t>
-  </si>
-  <si>
     <t>Kvaliteten på informasjonen om studieprogrammet</t>
   </si>
   <si>
@@ -306,15 +300,9 @@
     <t>tilbveil_konstru_13</t>
   </si>
   <si>
-    <t>tilbveil_student_18</t>
-  </si>
-  <si>
     <t>tilbveil_fagdisk_18</t>
   </si>
   <si>
-    <t>indx_tilbveil4</t>
-  </si>
-  <si>
     <t>miljo_sosial_13</t>
   </si>
   <si>
@@ -327,9 +315,6 @@
     <t>indx_psymiljo3</t>
   </si>
   <si>
-    <t>organ_tilgjinfo_17</t>
-  </si>
-  <si>
     <t>organ_kvalinfo_17</t>
   </si>
   <si>
@@ -339,9 +324,6 @@
     <t>organ_fagligsam_17</t>
   </si>
   <si>
-    <t>indx_organ4</t>
-  </si>
-  <si>
     <t>praksis_forber_14</t>
   </si>
   <si>
@@ -405,9 +387,6 @@
     <t>Kvalitetssikre/redigere egen tekst (stavekontroll, omformulering, etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oversette tekst</t>
-  </si>
-  <si>
     <t>Oppsummere eksisterende tekst (artikler, pensum, egne oppgaver, etc.)</t>
   </si>
   <si>
@@ -483,12 +462,6 @@
     <t>VURDERINGSFORMER</t>
   </si>
   <si>
-    <t>Informasjonen du fikk i forkant av praksisperioden</t>
-  </si>
-  <si>
-    <t>praksis_inf_19</t>
-  </si>
-  <si>
     <t>TILKNYTNING TIL ARBEIDSLIVET</t>
   </si>
   <si>
@@ -528,9 +501,6 @@
     <t>I hvilken grad har du benyttet deg av kunstig intelligens (KI) i studiearbeidet ditt? [1 (Bruker ikke) - 2 (Bruker sjelden) - 3 (Bruker av og til) - 4 (Bruker ofte)]</t>
   </si>
   <si>
-    <t>Studiebarometeret 2024</t>
-  </si>
-  <si>
     <t>FORVENTNINGER</t>
   </si>
   <si>
@@ -568,6 +538,63 @@
   </si>
   <si>
     <t>opplaer_ki_24</t>
+  </si>
+  <si>
+    <t>ki_retningslinjer_25</t>
+  </si>
+  <si>
+    <t>Oversette tekst</t>
+  </si>
+  <si>
+    <t>I hvilken grad er det tydelige retningslinjer for bruk av KI ved eksamen og andre vurderingssituasjoner?</t>
+  </si>
+  <si>
+    <t>FYSISK LÆRINGSMILJØ OG INFRASTRUKTUR</t>
+  </si>
+  <si>
+    <t>miljo_lokaler_13</t>
+  </si>
+  <si>
+    <t>miljo_biblio_13</t>
+  </si>
+  <si>
+    <t>miljo_ikt_13</t>
+  </si>
+  <si>
+    <t>INDEKS FYSISK LÆRINGSMILJØ OG INFRASTRUKTUR</t>
+  </si>
+  <si>
+    <t>indx_organ3</t>
+  </si>
+  <si>
+    <t>indx_fysmiljo3</t>
+  </si>
+  <si>
+    <t>Lokaler for undervisning og øvrig studiearbeid</t>
+  </si>
+  <si>
+    <t>Bibliotek og bibliotekstjenester</t>
+  </si>
+  <si>
+    <t>IKT-tjenester (f.eks. læringsplattformer, programvare og PC-tilgang)</t>
+  </si>
+  <si>
+    <t>indx_tilbveil3</t>
+  </si>
+  <si>
+    <t>Studiebarometeret 2025</t>
+  </si>
+  <si>
+    <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>Hvor mange dager i uken møter du opp ved lærestedet til undervisning eller egen studieinnsats?</t>
+  </si>
+  <si>
+    <t>Gjelder studenter som oppgir å ha regelmessig fysisk undervisning</t>
+  </si>
+  <si>
+    <t>campus_oppmote_25_omkoda</t>
   </si>
 </sst>
 </file>
@@ -971,23 +998,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="73.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.1796875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="25.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1004,15 +1031,15 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -1021,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1030,20 +1057,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1055,144 +1082,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -1201,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1213,66 +1240,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -1281,78 +1308,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23"/>
       <c r="E23" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -1361,846 +1388,896 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29"/>
       <c r="E29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34" t="s">
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34"/>
       <c r="E34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35"/>
+      <c r="D35" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E35" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>95</v>
+      <c r="D38" t="s">
+        <v>92</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39"/>
       <c r="E39" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>172</v>
+      </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
+        <v>180</v>
+      </c>
+      <c r="D42" t="s">
+        <v>174</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>175</v>
+      </c>
+      <c r="D43" t="s">
+        <v>177</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44"/>
       <c r="E44" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" t="s">
-        <v>150</v>
+        <v>45</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49"/>
       <c r="E49" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56"/>
       <c r="E56" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C59" s="2" t="s">
-        <v>113</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62"/>
       <c r="E62" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>136</v>
+      </c>
+      <c r="D63" t="s">
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66"/>
-      <c r="D66"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
+      </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
         <v>143</v>
       </c>
-      <c r="D67" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" t="s">
-        <v>138</v>
-      </c>
+      <c r="C68"/>
+      <c r="D68"/>
       <c r="E68" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E69" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E70" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
         <v>147</v>
       </c>
-      <c r="D71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72"/>
-      <c r="D72"/>
       <c r="E72" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E73" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" t="s">
-        <v>154</v>
-      </c>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74"/>
       <c r="E74" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75" t="s">
-        <v>160</v>
-      </c>
-      <c r="D75" t="s">
-        <v>155</v>
+        <v>57</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" t="s">
-        <v>156</v>
+        <v>58</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77" t="s">
-        <v>162</v>
-      </c>
-      <c r="D77" t="s">
-        <v>157</v>
+        <v>59</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
+        <v>1</v>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E78" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80"/>
+        <v>1</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
       <c r="B80"/>
-      <c r="C80" t="s">
-        <v>176</v>
-      </c>
-      <c r="D80" t="s">
-        <v>177</v>
-      </c>
+      <c r="C80"/>
+      <c r="D80"/>
       <c r="E80" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>118</v>
-      </c>
-      <c r="B81" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81"/>
-      <c r="D81"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D81" t="s">
+        <v>113</v>
+      </c>
       <c r="E81" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="E82" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="E83" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" t="s">
-        <v>131</v>
-      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
       <c r="E84" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
+      <c r="C92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
